--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bharatdivvela/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3AC365-33EF-7241-9351-3E21585A6341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$81</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
   <si>
     <t>Feature</t>
   </si>
@@ -451,9 +463,6 @@
     <t>SalePrice</t>
   </si>
   <si>
-    <t>the property's sale price in dollars. This is the target variable that you're trying to predict.</t>
-  </si>
-  <si>
     <t>SaleType</t>
   </si>
   <si>
@@ -512,29 +521,42 @@
   </si>
   <si>
     <t>Year Sold</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Important feature value missing</t>
+  </si>
+  <si>
+    <t>the property's sale price in dollars.</t>
+  </si>
+  <si>
+    <t>Number of Kitchens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
     </font>
@@ -544,7 +566,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -553,40 +575,66 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -776,24 +824,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="5" max="5" width="49.14"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,16 +860,19 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -826,16 +880,17 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -843,16 +898,17 @@
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -860,16 +916,17 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1">
-        <v>2721.0</v>
+        <v>2721</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -877,16 +934,17 @@
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -894,16 +952,17 @@
       <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -911,16 +970,17 @@
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="3">
-        <v>2837.0</v>
+        <v>2837</v>
       </c>
       <c r="C8" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -928,16 +988,17 @@
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>2837.0</v>
+        <v>2837</v>
       </c>
       <c r="C9" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -945,16 +1006,17 @@
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="48">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="3">
-        <v>2918.0</v>
+        <v>2918</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
@@ -962,16 +1024,19 @@
       <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="F10" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="48">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3">
-        <v>2918.0</v>
+        <v>2918</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
@@ -979,16 +1044,19 @@
       <c r="E11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="F11" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3">
-        <v>2840.0</v>
+        <v>2840</v>
       </c>
       <c r="C12" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
@@ -996,16 +1064,17 @@
       <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>2839.0</v>
+        <v>2839</v>
       </c>
       <c r="C13" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>13</v>
@@ -1013,16 +1082,17 @@
       <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="48">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3">
-        <v>2917.0</v>
+        <v>2917</v>
       </c>
       <c r="C14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
@@ -1030,16 +1100,19 @@
       <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="F14" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="48">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3">
-        <v>2917.0</v>
+        <v>2917</v>
       </c>
       <c r="C15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>24</v>
@@ -1047,16 +1120,19 @@
       <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="F15" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="3">
-        <v>2838.0</v>
+        <v>2838</v>
       </c>
       <c r="C16" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
@@ -1064,16 +1140,17 @@
       <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="48">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3">
-        <v>2918.0</v>
+        <v>2918</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>24</v>
@@ -1081,16 +1158,19 @@
       <c r="E17" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="F17" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -1098,16 +1178,17 @@
       <c r="E18" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -1115,16 +1196,17 @@
       <c r="E19" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>13</v>
@@ -1132,16 +1214,17 @@
       <c r="E20" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="3">
-        <v>2918.0</v>
+        <v>2918</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>13</v>
@@ -1149,16 +1232,17 @@
       <c r="E21" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
@@ -1166,16 +1250,17 @@
       <c r="E22" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>13</v>
@@ -1183,16 +1268,17 @@
       <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>13</v>
@@ -1200,16 +1286,17 @@
       <c r="E24" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="3">
-        <v>2918.0</v>
+        <v>2918</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>13</v>
@@ -1217,16 +1304,17 @@
       <c r="E25" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="3">
-        <v>2918.0</v>
+        <v>2918</v>
       </c>
       <c r="C26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>13</v>
@@ -1234,16 +1322,17 @@
       <c r="E26" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="3">
-        <v>571.0</v>
+        <v>571</v>
       </c>
       <c r="C27" s="1">
-        <v>2348.0</v>
+        <v>2348</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>13</v>
@@ -1251,16 +1340,17 @@
       <c r="E27" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="3">
-        <v>1499.0</v>
+        <v>1499</v>
       </c>
       <c r="C28" s="1">
-        <v>1420.0</v>
+        <v>1420</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>13</v>
@@ -1268,16 +1358,17 @@
       <c r="E28" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
@@ -1285,16 +1376,17 @@
       <c r="E29" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>13</v>
@@ -1302,16 +1394,17 @@
       <c r="E30" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
@@ -1319,16 +1412,17 @@
       <c r="E31" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="3">
-        <v>2917.0</v>
+        <v>2917</v>
       </c>
       <c r="C32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>13</v>
@@ -1336,16 +1430,17 @@
       <c r="E32" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="3">
-        <v>2918.0</v>
+        <v>2918</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>24</v>
@@ -1353,16 +1448,17 @@
       <c r="E33" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="3">
-        <v>2918.0</v>
+        <v>2918</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>24</v>
@@ -1370,16 +1466,17 @@
       <c r="E34" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="3">
-        <v>2760.0</v>
+        <v>2760</v>
       </c>
       <c r="C35" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -1387,16 +1484,17 @@
       <c r="E35" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B36" s="3">
-        <v>2760.0</v>
+        <v>2760</v>
       </c>
       <c r="C36" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>13</v>
@@ -1404,16 +1502,17 @@
       <c r="E36" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B37" s="3">
-        <v>2760.0</v>
+        <v>2760</v>
       </c>
       <c r="C37" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>13</v>
@@ -1421,16 +1520,17 @@
       <c r="E37" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="3">
-        <v>2762.0</v>
+        <v>2762</v>
       </c>
       <c r="C38" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>13</v>
@@ -1438,16 +1538,17 @@
       <c r="E38" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B39" s="3">
-        <v>2760.0</v>
+        <v>2760</v>
       </c>
       <c r="C39" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>24</v>
@@ -1455,16 +1556,17 @@
       <c r="E39" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B40" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -1472,16 +1574,17 @@
       <c r="E40" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -1489,16 +1592,17 @@
       <c r="E41" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B42" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>13</v>
@@ -1506,16 +1610,17 @@
       <c r="E42" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B43" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -1523,16 +1628,17 @@
       <c r="E43" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B44" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>13</v>
@@ -1540,33 +1646,35 @@
       <c r="E44" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B45" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="3">
-        <v>2918.0</v>
+        <v>2918</v>
       </c>
       <c r="C46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>13</v>
@@ -1574,16 +1682,17 @@
       <c r="E46" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>13</v>
@@ -1591,16 +1700,17 @@
       <c r="E47" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B48" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>13</v>
@@ -1608,16 +1718,17 @@
       <c r="E48" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="16">
       <c r="A49" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B49" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>6</v>
@@ -1625,16 +1736,17 @@
       <c r="E49" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" ht="16">
       <c r="A50" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B50" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>13</v>
@@ -1642,16 +1754,17 @@
       <c r="E50" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="16">
       <c r="A51" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B51" s="3">
-        <v>2433.0</v>
+        <v>2433</v>
       </c>
       <c r="C51" s="1">
-        <v>486.0</v>
+        <v>486</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>24</v>
@@ -1659,16 +1772,17 @@
       <c r="E51" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" ht="16">
       <c r="A52" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B52" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>13</v>
@@ -1676,16 +1790,17 @@
       <c r="E52" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="16">
       <c r="A53" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B53" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>6</v>
@@ -1693,16 +1808,17 @@
       <c r="E53" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" ht="16">
       <c r="A54" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B54" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>6</v>
@@ -1710,16 +1826,17 @@
       <c r="E54" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" ht="16">
       <c r="A55" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B55" s="3">
-        <v>2915.0</v>
+        <v>2915</v>
       </c>
       <c r="C55" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>13</v>
@@ -1727,16 +1844,17 @@
       <c r="E55" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" ht="16">
       <c r="A56" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B56" s="3">
-        <v>2896.0</v>
+        <v>2896</v>
       </c>
       <c r="C56" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>24</v>
@@ -1744,16 +1862,17 @@
       <c r="E56" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="16">
       <c r="A57" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B57" s="3">
-        <v>2895.0</v>
+        <v>2895</v>
       </c>
       <c r="C57" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>13</v>
@@ -1761,16 +1880,17 @@
       <c r="E57" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" ht="16">
       <c r="A58" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B58" s="3">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="C58" s="1">
-        <v>2814.0</v>
+        <v>2814</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>13</v>
@@ -1778,16 +1898,17 @@
       <c r="E58" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" ht="16">
       <c r="A59" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B59" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>6</v>
@@ -1795,16 +1916,17 @@
       <c r="E59" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="16">
       <c r="A60" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B60" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>6</v>
@@ -1812,16 +1934,17 @@
       <c r="E60" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61">
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" ht="16">
       <c r="A61" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B61" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -1829,16 +1952,17 @@
       <c r="E61" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" ht="16">
       <c r="A62" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B62" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>6</v>
@@ -1846,16 +1970,17 @@
       <c r="E62" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" ht="16">
       <c r="A63" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B63" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>6</v>
@@ -1863,16 +1988,17 @@
       <c r="E63" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" ht="16">
       <c r="A64" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B64" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>6</v>
@@ -1880,16 +2006,17 @@
       <c r="E64" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" ht="16">
       <c r="A65" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B65" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>13</v>
@@ -1897,16 +2024,17 @@
       <c r="E65" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" ht="16">
       <c r="A66" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B66" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>6</v>
@@ -1914,16 +2042,17 @@
       <c r="E66" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="67">
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" ht="16">
       <c r="A67" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B67" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C67" s="1">
-        <v>2909.0</v>
+        <v>2909</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>13</v>
@@ -1931,16 +2060,17 @@
       <c r="E67" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="68">
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" ht="16">
       <c r="A68" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B68" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>13</v>
@@ -1948,16 +2078,17 @@
       <c r="E68" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="69">
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" ht="16">
       <c r="A69" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B69" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>13</v>
@@ -1965,16 +2096,17 @@
       <c r="E69" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="70">
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" ht="16">
       <c r="A70" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B70" s="3">
-        <v>2919.0</v>
+        <v>2919</v>
       </c>
       <c r="C70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>13</v>
@@ -1982,195 +2114,209 @@
       <c r="E70" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" ht="16">
       <c r="A71" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B71" s="3">
-        <v>1460.0</v>
+        <v>1460</v>
       </c>
       <c r="C71" s="1">
-        <v>1459.0</v>
+        <v>1459</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" ht="16">
+      <c r="A72" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="B72" s="3">
+        <v>2918</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="3">
-        <v>2918.0</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" ht="16">
+      <c r="A73" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="B73" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="3">
-        <v>2919.0</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" ht="16">
+      <c r="A74" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="B74" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="3">
-        <v>2919.0</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" ht="16">
+      <c r="A75" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="B75" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="3">
-        <v>2919.0</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" ht="48">
+      <c r="A76" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="B76" s="3">
-        <v>2918.0</v>
+        <v>2918</v>
       </c>
       <c r="C76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16">
+      <c r="A77" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="B77" s="3">
+        <v>2917</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="3">
-        <v>2917.0</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" ht="16">
+      <c r="A78" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="B78" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="3">
-        <v>2919.0</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" ht="16">
+      <c r="A79" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="B79" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="3">
-        <v>2919.0</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" ht="16">
+      <c r="A80" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="B80" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="3">
-        <v>2919.0</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" ht="16">
+      <c r="A81" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="B81" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="3">
-        <v>2919.0</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="F81" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bharatdivvela/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3AC365-33EF-7241-9351-3E21585A6341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A6DDBA-F421-BF44-9C97-99FF29282FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$81</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="178">
   <si>
     <t>Feature</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Missing Values</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -533,6 +530,33 @@
   </si>
   <si>
     <t>Number of Kitchens</t>
+  </si>
+  <si>
+    <t>Python DataType</t>
+  </si>
+  <si>
+    <t>Type of Feature</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Numeric(dicrete)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>If taken as standalone, It can be defined as date field if combined with YearSold</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Binary</t>
   </si>
 </sst>
 </file>
@@ -834,17 +858,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="49.1640625" customWidth="1"/>
+    <col min="6" max="6" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,72 +879,84 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="16">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="16">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="16">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>198</v>
@@ -928,53 +964,62 @@
       <c r="C5" s="1">
         <v>2721</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="31">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="B8" s="3">
         <v>2837</v>
@@ -982,17 +1027,20 @@
       <c r="C8" s="1">
         <v>82</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="16">
+      <c r="A9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B9" s="3">
         <v>2837</v>
@@ -1000,17 +1048,20 @@
       <c r="C9" s="1">
         <v>82</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="48">
+      <c r="A10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="48">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B10" s="3">
         <v>2918</v>
@@ -1018,19 +1069,22 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="48">
+      <c r="A11" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="48">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="B11" s="3">
         <v>2918</v>
@@ -1038,19 +1092,22 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16">
+      <c r="A12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="B12" s="3">
         <v>2840</v>
@@ -1058,17 +1115,20 @@
       <c r="C12" s="1">
         <v>79</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="B13" s="3">
         <v>2839</v>
@@ -1076,17 +1136,20 @@
       <c r="C13" s="1">
         <v>80</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="48">
+      <c r="A14" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="48">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B14" s="3">
         <v>2917</v>
@@ -1094,19 +1157,22 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="48">
+      <c r="A15" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="48">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="B15" s="3">
         <v>2917</v>
@@ -1114,19 +1180,22 @@
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16">
+      <c r="A16" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="B16" s="3">
         <v>2838</v>
@@ -1134,17 +1203,20 @@
       <c r="C16" s="1">
         <v>81</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="48">
+      <c r="A17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="48">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B17" s="3">
         <v>2918</v>
@@ -1152,73 +1224,85 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="16">
+      <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="16">
+      <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="16">
+      <c r="A21" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="B21" s="3">
         <v>2918</v>
@@ -1226,71 +1310,83 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="16">
+      <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="16">
+      <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="16">
+      <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="16">
+      <c r="A25" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B25" s="3">
         <v>2918</v>
@@ -1298,17 +1394,20 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="16">
+      <c r="A26" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B26" s="3">
         <v>2918</v>
@@ -1316,17 +1415,20 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="16">
+      <c r="A27" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="16">
-      <c r="A27" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B27" s="3">
         <v>571</v>
@@ -1334,17 +1436,20 @@
       <c r="C27" s="1">
         <v>2348</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="16">
+      <c r="A28" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="16">
-      <c r="A28" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B28" s="3">
         <v>1499</v>
@@ -1352,71 +1457,83 @@
       <c r="C28" s="1">
         <v>1420</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="31">
+      <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="16">
+      <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="31">
+      <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="16">
+      <c r="A32" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="B32" s="3">
         <v>2917</v>
@@ -1424,17 +1541,20 @@
       <c r="C32" s="1">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" ht="16">
+      <c r="A33" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="B33" s="3">
         <v>2918</v>
@@ -1442,17 +1562,20 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="31">
+      <c r="A34" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="B34" s="3">
         <v>2918</v>
@@ -1460,17 +1583,20 @@
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="16">
+      <c r="A35" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="B35" s="3">
         <v>2760</v>
@@ -1478,17 +1604,20 @@
       <c r="C35" s="1">
         <v>159</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="16">
+      <c r="A36" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B36" s="3">
         <v>2760</v>
@@ -1496,17 +1625,20 @@
       <c r="C36" s="1">
         <v>159</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" ht="16">
+      <c r="A37" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B37" s="3">
         <v>2760</v>
@@ -1514,17 +1646,20 @@
       <c r="C37" s="1">
         <v>159</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" ht="16">
+      <c r="A38" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="B38" s="3">
         <v>2762</v>
@@ -1532,17 +1667,20 @@
       <c r="C38" s="1">
         <v>157</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="16">
+      <c r="A39" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="B39" s="3">
         <v>2760</v>
@@ -1550,125 +1688,146 @@
       <c r="C39" s="1">
         <v>159</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="16">
+      <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" ht="31">
+      <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" ht="16">
+      <c r="A42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" ht="16">
+      <c r="A43" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
+      <c r="B43" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" ht="16">
+      <c r="A44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" ht="31">
+      <c r="A45" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
+      <c r="B45" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" ht="16">
+      <c r="A46" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B45" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B46" s="3">
         <v>2918</v>
@@ -1676,89 +1835,104 @@
       <c r="C46" s="1">
         <v>1</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" ht="16">
+      <c r="A47" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" ht="16">
+      <c r="A48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" ht="16">
+      <c r="A49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" ht="16">
-      <c r="A49" s="3" t="s">
+      <c r="B49" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" ht="16">
+      <c r="A50" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" ht="16">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" ht="16">
+      <c r="A51" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" ht="16">
-      <c r="A51" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="B51" s="3">
         <v>2433</v>
@@ -1766,71 +1940,83 @@
       <c r="C51" s="1">
         <v>486</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" ht="16">
+      <c r="A52" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" ht="16">
-      <c r="A52" s="3" t="s">
+      <c r="B52" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" ht="16">
+      <c r="A53" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" ht="16">
-      <c r="A53" s="3" t="s">
+      <c r="B53" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" ht="16">
+      <c r="A54" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" ht="16">
-      <c r="A54" s="3" t="s">
+      <c r="B54" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" ht="16">
+      <c r="A55" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" ht="16">
-      <c r="A55" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="B55" s="3">
         <v>2915</v>
@@ -1838,17 +2024,20 @@
       <c r="C55" s="1">
         <v>4</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="D55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" ht="16">
+      <c r="A56" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" ht="16">
-      <c r="A56" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="B56" s="3">
         <v>2896</v>
@@ -1856,17 +2045,20 @@
       <c r="C56" s="1">
         <v>23</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="D56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" ht="16">
+      <c r="A57" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" ht="16">
-      <c r="A57" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="B57" s="3">
         <v>2895</v>
@@ -1874,17 +2066,20 @@
       <c r="C57" s="1">
         <v>24</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" ht="16">
+      <c r="A58" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" ht="16">
-      <c r="A58" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="B58" s="3">
         <v>105</v>
@@ -1892,161 +2087,190 @@
       <c r="C58" s="1">
         <v>2814</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" ht="16">
+      <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" ht="16">
-      <c r="A59" s="3" t="s">
+      <c r="B59" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" ht="16">
+      <c r="A60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" ht="16">
-      <c r="A60" s="3" t="s">
+      <c r="B60" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="4" t="s">
+      <c r="G60" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16">
+      <c r="A61" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" ht="16">
-      <c r="A61" s="3" t="s">
+      <c r="B61" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" ht="16">
+      <c r="A62" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" ht="16">
-      <c r="A62" s="3" t="s">
+      <c r="B62" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" ht="16">
+      <c r="A63" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" ht="16">
-      <c r="A63" s="3" t="s">
+      <c r="B63" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="4" t="s">
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" ht="16">
+      <c r="A64" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" ht="16">
-      <c r="A64" s="3" t="s">
+      <c r="B64" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="4" t="s">
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" ht="16">
+      <c r="A65" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" ht="16">
-      <c r="A65" s="3" t="s">
+      <c r="B65" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="4" t="s">
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" ht="16">
+      <c r="A66" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" ht="16">
-      <c r="A66" s="3" t="s">
+      <c r="B66" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="4" t="s">
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" ht="16">
+      <c r="A67" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" ht="16">
-      <c r="A67" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="B67" s="3">
         <v>10</v>
@@ -2054,71 +2278,83 @@
       <c r="C67" s="1">
         <v>2909</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="D67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" ht="16">
+      <c r="A68" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" ht="16">
-      <c r="A68" s="3" t="s">
+      <c r="B68" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" ht="16">
+      <c r="A69" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" ht="16">
-      <c r="A69" s="3" t="s">
+      <c r="B69" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="4" t="s">
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" ht="16">
+      <c r="A70" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:6" ht="16">
-      <c r="A70" s="3" t="s">
+      <c r="B70" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" ht="16">
+      <c r="A71" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" ht="16">
-      <c r="A71" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="B71" s="3">
         <v>1460</v>
@@ -2126,17 +2362,20 @@
       <c r="C71" s="1">
         <v>1459</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" ht="16">
+      <c r="D71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" ht="16">
       <c r="A72" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="3">
         <v>2918</v>
@@ -2144,71 +2383,83 @@
       <c r="C72" s="1">
         <v>1</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="4" t="s">
+      <c r="D72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" ht="16">
+      <c r="A73" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" ht="16">
-      <c r="A73" s="3" t="s">
+      <c r="B73" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="4" t="s">
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" ht="16">
+      <c r="A74" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" ht="16">
-      <c r="A74" s="3" t="s">
+      <c r="B74" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7" ht="31">
+      <c r="A75" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:6" ht="16">
-      <c r="A75" s="3" t="s">
+      <c r="B75" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="4" t="s">
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" ht="48">
+      <c r="A76" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="1:6" ht="48">
-      <c r="A76" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="B76" s="3">
         <v>2918</v>
@@ -2216,19 +2467,22 @@
       <c r="C76" s="1">
         <v>1</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="4" t="s">
+      <c r="D76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="16">
+      <c r="A77" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="16">
-      <c r="A77" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="B77" s="3">
         <v>2917</v>
@@ -2236,87 +2490,103 @@
       <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7" ht="16">
+      <c r="A78" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" ht="16">
-      <c r="A78" s="3" t="s">
+      <c r="B78" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:7" ht="16">
+      <c r="A79" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" ht="16">
-      <c r="A79" s="3" t="s">
+      <c r="B79" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:7" ht="16">
+      <c r="A80" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" ht="16">
-      <c r="A80" s="3" t="s">
+      <c r="B80" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" ht="16">
+      <c r="A81" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="1:6" ht="16">
-      <c r="A81" s="3" t="s">
+      <c r="B81" s="3">
+        <v>2919</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="3">
-        <v>2919</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G81" xr:uid="{58D56DEE-C4BD-5B4B-8207-CFEFC6C9BCFA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>